--- a/data/hotels_by_city/Dallas/Dallas_shard_46.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Shirley B</t>
+  </si>
+  <si>
     <t>05/27/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We went up for a graduation and got there and was allowed to check in early so we could change for the graduation. The hotel and the staff, Rhonda, was most accommodating. This was a wonderful stay and I would highly recommend it to anyone that needed to go to this area for any event to stay at the Best Western Plus!More</t>
   </si>
   <si>
+    <t>Bev W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d570263-r572242524-Best_Western_Plus_Monica_Royale_Inn_Suites-Greenville_Texas.html</t>
   </si>
   <si>
@@ -211,6 +217,9 @@
   </si>
   <si>
     <t>There is nothing about this hotel we did not like.  Just one night passing through, we found this super clean, updated hotel.  The rooms are spacious with high ceilings, and comfortable bed and linens.   Handy also to have a mini fridge, microwave and safe.   A quick visit to the gym and indoor pool (warm but a bit cloudy water) got us hungry for breakfast which, although “serve yourself” is actually cooked, and not microwaved, in a real kitchen.  Breakfast included hot and cold choices with 2 kinds of meat (sausage or bacon) and Eggs (pre-made cheese omelets or hardboiled).  Lots of nearby restaurants for dinner.  Friendly staff.  Great value. More</t>
+  </si>
+  <si>
+    <t>Jessica_4344</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d570263-r580724680-Best_Western_Plus_Monica_Royale_Inn_Suites-Greenville_Texas.html</t>
@@ -238,6 +247,9 @@
 My issues started at check in. I was traveling with family and we had two rooms. We checked in for both and were asked to provide a credit card for incidentals. No problem, very common. We did so, and nothing was mentioned about express checkout or anything else. That was fine, as I planned to pay with cash at checkout. The morning of checkout, I received a receipt via email showing both rooms were charged to the credit card. I went to the front desk to checkout and fix the bill so I could pay with cash and was told only a manager can do that (she said she “didn’t know” how to do that, and put air quotes around didn’t know) and she was alone all day sonothing could be done. The manager was at home and couldn’t access the system. I asked if we could call a best western national number for help but she said theywould just tell us to get with a manager. She basically said nothing could be done about the issue and I was out of luck....The hotel itself is nice enough, although it is outdated and in need of repair. Where repairs have been done, they were not painted over so you can see where walls were just patched up.  Lobby was nice and the rooms have a nice layout. Breakfast was also nice and the breakfast attendant went above and beyond. My issues started at check in. I was traveling with family and we had two rooms. We checked in for both and were asked to provide a credit card for incidentals. No problem, very common. We did so, and nothing was mentioned about express checkout or anything else. That was fine, as I planned to pay with cash at checkout. The morning of checkout, I received a receipt via email showing both rooms were charged to the credit card. I went to the front desk to checkout and fix the bill so I could pay with cash and was told only a manager can do that (she said she “didn’t know” how to do that, and put air quotes around didn’t know) and she was alone all day sonothing could be done. The manager was at home and couldn’t access the system. I asked if we could call a best western national number for help but she said theywould just tell us to get with a manager. She basically said nothing could be done about the issue and I was out of luck.The rooms also could have been cleaned better. One room had a dirty restroom mirror while the other had food stains on the door (which I was able to easily see and wipe away) and toothpaste from a previous guest was still on the sink. The manager did email me back saying I booked the room at an early rate, so that was the reason the payment method couldn’t be changed. I don’t remember that at all during the booking process, but ok. Regardless, I do think the staff should have at least known that information to pass along.More</t>
   </si>
   <si>
+    <t>bbh56260</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d570263-r578663796-Best_Western_Plus_Monica_Royale_Inn_Suites-Greenville_Texas.html</t>
   </si>
   <si>
@@ -265,6 +277,9 @@
     <t>Room 216, standard double, booked one night on points and one on revenue booking, called hotel twice before arrival to make sure they understood we wanted to stay in same room and not change.  Was told fine to come down first morning check out of stay the night before and check into revenue booking for that night.....easy peasy.  Well we arrived on friday night system was down, we asked if they could give us a room.....more than once.  was told no way to check us in with credit card.....we finally called another hotel made res. and then when we were about to cancel with BW we we offered a room.  we got to room and at 930p they called to ask if we could come down and take care of credit card....this was the night that was on points anyways.....we were in bed.  next morning went to check out of the first night res and in for the 2nd night and went back to room to get a couple of things and key cards did not work.  finally got it straightened around......the hotel is fine, we could not find a way to turn off ceiling fan, is close to many restaurants and good location off I30.  dont know if i would stay again as it seems the staff if a bit under trained and i had a similar experience at another BW plus stes.......so may be changing my loyalty.More</t>
   </si>
   <si>
+    <t>lajacksn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d570263-r566104590-Best_Western_Plus_Monica_Royale_Inn_Suites-Greenville_Texas.html</t>
   </si>
   <si>
@@ -295,6 +310,9 @@
     <t>This is an older hotel that has been modernized inside but still retains its stately feeling.  The room was clean, comfortable and large.  The staff and service were first rate.  This was a very enjoyable stay.More</t>
   </si>
   <si>
+    <t>Koty M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d570263-r557128357-Best_Western_Plus_Monica_Royale_Inn_Suites-Greenville_Texas.html</t>
   </si>
   <si>
@@ -322,6 +340,9 @@
     <t>The outside and lobby of this hotel are amazing, pulling up I was pleasantly surprised by the upkeep in the outside appearance. Right off the interest wal mart and any kind of restaurant you would want to eat at are all within 5 miles and there’s a few within walking distance. If traveling back this way with a stopping point we will chose the Greenville location every time now.More</t>
   </si>
   <si>
+    <t>aijazk2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d570263-r551995665-Best_Western_Plus_Monica_Royale_Inn_Suites-Greenville_Texas.html</t>
   </si>
   <si>
@@ -352,6 +373,9 @@
     <t>Its excellent hotel. We use to stay very frequently. We know all staff and they are very friendly. Excellent condition and services. Best in the area. We will use this hotel all next year and after. Thank you for good service. More</t>
   </si>
   <si>
+    <t>kmcWaco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d570263-r551863655-Best_Western_Plus_Monica_Royale_Inn_Suites-Greenville_Texas.html</t>
   </si>
   <si>
@@ -370,6 +394,9 @@
     <t>The bathtub faucet dropped, the outlet in bathroom was loose, the switch plate covering it was cracked, no blow dryer, coffee machine broken.   Loud guests across hall from 2200-200, called front desk multiple times to no avail. Called guest services and hotel manager. Manager, Christian, stayed no policy in place for loud guests but management is always available. Too bad I didn’t have his number. Been a guest since 2014, but won’t be back. More</t>
   </si>
   <si>
+    <t>Mike O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d570263-r551283346-Best_Western_Plus_Monica_Royale_Inn_Suites-Greenville_Texas.html</t>
   </si>
   <si>
@@ -395,6 +422,9 @@
   </si>
   <si>
     <t>We spent 2 nights in a wonderful Honeymoon Suite!  Separate living room with wet bar, huge bathroom with huge walk in shower water coming out in 2 directions, separate jacuzzi room with TV and bedroom outside the jacuzzi room.  Would love to stay there again.  Very clean and accommodating hotel!  Highly recommend! More</t>
+  </si>
+  <si>
+    <t>patbullockjr</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d570263-r550726881-Best_Western_Plus_Monica_Royale_Inn_Suites-Greenville_Texas.html</t>
@@ -926,43 +956,47 @@
       <c r="A2" t="n">
         <v>53529</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>6789</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -984,47 +1018,51 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>53529</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>122978</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -1041,56 +1079,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>53529</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>122979</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1102,56 +1144,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>53529</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>122980</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1167,56 +1213,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>53529</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>122981</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1238,56 +1288,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>53529</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>122982</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1309,56 +1363,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>53529</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>122983</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1380,56 +1438,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>53529</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>122984</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1441,56 +1503,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>53529</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>26073</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1502,56 +1568,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>53529</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>122985</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -1569,13 +1639,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
